--- a/data/contrato_correto.xlsx
+++ b/data/contrato_correto.xlsx
@@ -44,10 +44,10 @@
     <t>categoria</t>
   </si>
   <si>
-    <t>joao@gmail.com</t>
-  </si>
-  <si>
-    <t>videogame</t>
+    <t>mateusvbkasuya@gmail.com</t>
+  </si>
+  <si>
+    <t>moto</t>
   </si>
   <si>
     <t>categoria1</t>
@@ -383,7 +383,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,6 +392,7 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -419,10 +420,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>45396</v>
+        <v>45401</v>
       </c>
       <c r="C2">
-        <v>150.5</v>
+        <v>2500</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
